--- a/data/pca/factorExposure/factorExposure_2012-03-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-03-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01322042505708508</v>
+        <v>0.01450556261043977</v>
       </c>
       <c r="C2">
-        <v>-0.03091027334207642</v>
+        <v>0.02649866350896833</v>
       </c>
       <c r="D2">
-        <v>0.0039603378471472</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.006048003744291907</v>
+      </c>
+      <c r="E2">
+        <v>0.01120225857687281</v>
+      </c>
+      <c r="F2">
+        <v>0.01229606788302461</v>
+      </c>
+      <c r="G2">
+        <v>0.01853236786945621</v>
+      </c>
+      <c r="H2">
+        <v>0.05243126636136139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07214762427148547</v>
+        <v>0.08707785245408207</v>
       </c>
       <c r="C4">
-        <v>-0.05024567424259287</v>
+        <v>0.03707726528356894</v>
       </c>
       <c r="D4">
-        <v>0.08237517398667923</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06500834569865374</v>
+      </c>
+      <c r="E4">
+        <v>0.01458735753368718</v>
+      </c>
+      <c r="F4">
+        <v>0.03105272999881689</v>
+      </c>
+      <c r="G4">
+        <v>0.004449247423257237</v>
+      </c>
+      <c r="H4">
+        <v>-0.03962317963450321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1071231446696577</v>
+        <v>0.118984252872123</v>
       </c>
       <c r="C6">
-        <v>-0.05594377847073457</v>
+        <v>0.03502682270954162</v>
       </c>
       <c r="D6">
-        <v>-0.003221448672912309</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01157271234642825</v>
+      </c>
+      <c r="E6">
+        <v>-0.003093688485902301</v>
+      </c>
+      <c r="F6">
+        <v>0.05130978998574853</v>
+      </c>
+      <c r="G6">
+        <v>0.03360766328308096</v>
+      </c>
+      <c r="H6">
+        <v>0.1091468268940189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04910182093610651</v>
+        <v>0.06381188785235779</v>
       </c>
       <c r="C7">
-        <v>-0.02882395480695523</v>
+        <v>0.02064260100894438</v>
       </c>
       <c r="D7">
-        <v>0.04508773001842345</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04514163119795911</v>
+      </c>
+      <c r="E7">
+        <v>0.03677162485278894</v>
+      </c>
+      <c r="F7">
+        <v>0.03421704500996312</v>
+      </c>
+      <c r="G7">
+        <v>-0.03708097454875314</v>
+      </c>
+      <c r="H7">
+        <v>-0.004694282625478833</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.04012581157369385</v>
+        <v>0.04231186247887573</v>
       </c>
       <c r="C8">
-        <v>-0.0139525739932747</v>
+        <v>0.008465837296193181</v>
       </c>
       <c r="D8">
-        <v>0.05294939243816095</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02138777798366225</v>
+      </c>
+      <c r="E8">
+        <v>0.03632093266624706</v>
+      </c>
+      <c r="F8">
+        <v>0.051071337203248</v>
+      </c>
+      <c r="G8">
+        <v>0.05717015239271361</v>
+      </c>
+      <c r="H8">
+        <v>0.006965365823073996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06660436806703039</v>
+        <v>0.0783908697625017</v>
       </c>
       <c r="C9">
-        <v>-0.04197624261410943</v>
+        <v>0.02791407907271351</v>
       </c>
       <c r="D9">
-        <v>0.07192619794386373</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06412639508159058</v>
+      </c>
+      <c r="E9">
+        <v>0.03976084692966975</v>
+      </c>
+      <c r="F9">
+        <v>0.02923875653262449</v>
+      </c>
+      <c r="G9">
+        <v>0.00632813663116358</v>
+      </c>
+      <c r="H9">
+        <v>-0.04444078344122927</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02860036901048747</v>
+        <v>0.03374626954544199</v>
       </c>
       <c r="C10">
-        <v>-0.03371372348069364</v>
+        <v>0.04383236794113039</v>
       </c>
       <c r="D10">
-        <v>-0.1801765839580305</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1745983459480756</v>
+      </c>
+      <c r="E10">
+        <v>0.04910254322296556</v>
+      </c>
+      <c r="F10">
+        <v>0.04479458063495457</v>
+      </c>
+      <c r="G10">
+        <v>-0.02890832199762432</v>
+      </c>
+      <c r="H10">
+        <v>0.0465588031054851</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07021825664839086</v>
+        <v>0.07640275654106829</v>
       </c>
       <c r="C11">
-        <v>-0.04777802852412362</v>
+        <v>0.02767938354322658</v>
       </c>
       <c r="D11">
-        <v>0.05589200612706282</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06269065510329158</v>
+      </c>
+      <c r="E11">
+        <v>-0.001087833245640788</v>
+      </c>
+      <c r="F11">
+        <v>0.02861558309464055</v>
+      </c>
+      <c r="G11">
+        <v>-0.006240281620446961</v>
+      </c>
+      <c r="H11">
+        <v>-0.08218843793422377</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05821579475628306</v>
+        <v>0.06758394526681812</v>
       </c>
       <c r="C12">
-        <v>-0.05268792279774159</v>
+        <v>0.03742617587237713</v>
       </c>
       <c r="D12">
-        <v>0.04246424709147312</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04794376041137623</v>
+      </c>
+      <c r="E12">
+        <v>0.01327721678260302</v>
+      </c>
+      <c r="F12">
+        <v>0.02060103791415152</v>
+      </c>
+      <c r="G12">
+        <v>0.001268446492744615</v>
+      </c>
+      <c r="H12">
+        <v>-0.03935693326532416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.05969603048126165</v>
+        <v>0.06500884988988097</v>
       </c>
       <c r="C13">
-        <v>-0.03991895289115906</v>
+        <v>0.02529130078144231</v>
       </c>
       <c r="D13">
-        <v>0.06125947733911433</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.0433805212019308</v>
+      </c>
+      <c r="E13">
+        <v>0.01737624338927472</v>
+      </c>
+      <c r="F13">
+        <v>0.006853078231760408</v>
+      </c>
+      <c r="G13">
+        <v>-0.008505402589484351</v>
+      </c>
+      <c r="H13">
+        <v>-0.03629732857591939</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03283378510009202</v>
+        <v>0.04090722075985902</v>
       </c>
       <c r="C14">
-        <v>-0.03133619829411234</v>
+        <v>0.02724729929458926</v>
       </c>
       <c r="D14">
-        <v>0.0009814151364944338</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.007466056789371381</v>
+      </c>
+      <c r="E14">
+        <v>0.03337067623162653</v>
+      </c>
+      <c r="F14">
+        <v>0.01083620190518882</v>
+      </c>
+      <c r="G14">
+        <v>0.003805431181708666</v>
+      </c>
+      <c r="H14">
+        <v>-0.05865310485388556</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.0400250764123878</v>
+        <v>0.04014577607907768</v>
       </c>
       <c r="C15">
-        <v>-0.01130335252502059</v>
+        <v>0.003824815102491985</v>
       </c>
       <c r="D15">
-        <v>0.01840700048466694</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.004159661819074966</v>
+      </c>
+      <c r="E15">
+        <v>0.04119653266530948</v>
+      </c>
+      <c r="F15">
+        <v>-0.007816334977428936</v>
+      </c>
+      <c r="G15">
+        <v>0.02447429793636019</v>
+      </c>
+      <c r="H15">
+        <v>-0.03680243964902572</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06040641914753155</v>
+        <v>0.07043024236765917</v>
       </c>
       <c r="C16">
-        <v>-0.04302732697902179</v>
+        <v>0.02829838076366332</v>
       </c>
       <c r="D16">
-        <v>0.04538767535112223</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06168133863592981</v>
+      </c>
+      <c r="E16">
+        <v>0.006886552379024123</v>
+      </c>
+      <c r="F16">
+        <v>0.02504145663164132</v>
+      </c>
+      <c r="G16">
+        <v>-0.004714244298340052</v>
+      </c>
+      <c r="H16">
+        <v>-0.0499046246689563</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0627169578599215</v>
+        <v>0.0638969611397939</v>
       </c>
       <c r="C20">
-        <v>-0.03001618557638672</v>
+        <v>0.01315749949989919</v>
       </c>
       <c r="D20">
-        <v>0.04996901516856436</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03807664981510175</v>
+      </c>
+      <c r="E20">
+        <v>0.03152822207920435</v>
+      </c>
+      <c r="F20">
+        <v>0.01958748528489125</v>
+      </c>
+      <c r="G20">
+        <v>0.01081208550818218</v>
+      </c>
+      <c r="H20">
+        <v>-0.04109567859555673</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02412899057001712</v>
+        <v>0.02566804100097271</v>
       </c>
       <c r="C21">
-        <v>0.002268260188948331</v>
+        <v>-0.009323711185693166</v>
       </c>
       <c r="D21">
-        <v>0.02528432783695761</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02783550256919238</v>
+      </c>
+      <c r="E21">
+        <v>0.0390644673120833</v>
+      </c>
+      <c r="F21">
+        <v>-0.01526630847675126</v>
+      </c>
+      <c r="G21">
+        <v>0.006966999479956461</v>
+      </c>
+      <c r="H21">
+        <v>0.04594773779766701</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07685866552404969</v>
+        <v>0.07281665896445587</v>
       </c>
       <c r="C22">
-        <v>-0.06009370522135129</v>
+        <v>0.03925512704909428</v>
       </c>
       <c r="D22">
-        <v>0.1032994175681169</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.07075860571125296</v>
+      </c>
+      <c r="E22">
+        <v>0.5624235655705034</v>
+      </c>
+      <c r="F22">
+        <v>-0.2483534376035018</v>
+      </c>
+      <c r="G22">
+        <v>-0.07140845961185587</v>
+      </c>
+      <c r="H22">
+        <v>0.1495350625128537</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07784063005612425</v>
+        <v>0.07346812755134677</v>
       </c>
       <c r="C23">
-        <v>-0.05900408853458355</v>
+        <v>0.03793803337249081</v>
       </c>
       <c r="D23">
-        <v>0.1048831559626826</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.07159289907894313</v>
+      </c>
+      <c r="E23">
+        <v>0.5618239042829158</v>
+      </c>
+      <c r="F23">
+        <v>-0.2469795524989795</v>
+      </c>
+      <c r="G23">
+        <v>-0.0700109404179784</v>
+      </c>
+      <c r="H23">
+        <v>0.1445577548658918</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0704617241950818</v>
+        <v>0.0796100645695511</v>
       </c>
       <c r="C24">
-        <v>-0.05146695793981781</v>
+        <v>0.03360960862789443</v>
       </c>
       <c r="D24">
-        <v>0.05856577572371947</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06027474828099586</v>
+      </c>
+      <c r="E24">
+        <v>0.01743088227499474</v>
+      </c>
+      <c r="F24">
+        <v>0.03388389843870918</v>
+      </c>
+      <c r="G24">
+        <v>0.009467139637154743</v>
+      </c>
+      <c r="H24">
+        <v>-0.05326107035836834</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07072437326699293</v>
+        <v>0.07785547047129994</v>
       </c>
       <c r="C25">
-        <v>-0.05698937902272997</v>
+        <v>0.03828016120389363</v>
       </c>
       <c r="D25">
-        <v>0.0658490895227011</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05274596923609756</v>
+      </c>
+      <c r="E25">
+        <v>0.02145108251538875</v>
+      </c>
+      <c r="F25">
+        <v>0.0239533644834902</v>
+      </c>
+      <c r="G25">
+        <v>0.01698245087328332</v>
+      </c>
+      <c r="H25">
+        <v>-0.05514075775962288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04502129348409034</v>
+        <v>0.04776556146803432</v>
       </c>
       <c r="C26">
-        <v>-0.01089094641428591</v>
+        <v>0.003018836276500353</v>
       </c>
       <c r="D26">
-        <v>0.01258851333195399</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01778938195362965</v>
+      </c>
+      <c r="E26">
+        <v>0.05409777719890723</v>
+      </c>
+      <c r="F26">
+        <v>0.0207262716040932</v>
+      </c>
+      <c r="G26">
+        <v>-0.009525467349741983</v>
+      </c>
+      <c r="H26">
+        <v>-0.05167652523098023</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05244785941442676</v>
+        <v>0.06178507268525018</v>
       </c>
       <c r="C28">
-        <v>-0.07602220872904947</v>
+        <v>0.08791153483721795</v>
       </c>
       <c r="D28">
-        <v>-0.3136685930093066</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.308075607800565</v>
+      </c>
+      <c r="E28">
+        <v>0.02724148548443456</v>
+      </c>
+      <c r="F28">
+        <v>0.05287006634867524</v>
+      </c>
+      <c r="G28">
+        <v>0.03292187578609144</v>
+      </c>
+      <c r="H28">
+        <v>0.04298250750651773</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.03977875681511377</v>
+        <v>0.04837449748895986</v>
       </c>
       <c r="C29">
-        <v>-0.03057966511200605</v>
+        <v>0.02594216739765129</v>
       </c>
       <c r="D29">
-        <v>0.005008856295541302</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.007074916479055124</v>
+      </c>
+      <c r="E29">
+        <v>0.05395767877349356</v>
+      </c>
+      <c r="F29">
+        <v>0.001764500801402003</v>
+      </c>
+      <c r="G29">
+        <v>-0.01014323759662072</v>
+      </c>
+      <c r="H29">
+        <v>-0.07729908960581124</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.123918346453968</v>
+        <v>0.1312495139660651</v>
       </c>
       <c r="C30">
-        <v>-0.09315314502300207</v>
+        <v>0.06424209851491844</v>
       </c>
       <c r="D30">
-        <v>0.1156783925754812</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.06887408526343265</v>
+      </c>
+      <c r="E30">
+        <v>0.08628930197562897</v>
+      </c>
+      <c r="F30">
+        <v>-0.02765967581692913</v>
+      </c>
+      <c r="G30">
+        <v>0.07742458243352845</v>
+      </c>
+      <c r="H30">
+        <v>0.04507357996037822</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04251520250841274</v>
+        <v>0.04852639847139591</v>
       </c>
       <c r="C31">
-        <v>-0.02309194298644746</v>
+        <v>0.01461577643096135</v>
       </c>
       <c r="D31">
-        <v>0.02619957975032307</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02688060000765502</v>
+      </c>
+      <c r="E31">
+        <v>0.02682114768874502</v>
+      </c>
+      <c r="F31">
+        <v>0.00922522266491178</v>
+      </c>
+      <c r="G31">
+        <v>-0.02991929881269624</v>
+      </c>
+      <c r="H31">
+        <v>-0.06177373615176192</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03849816825338099</v>
+        <v>0.0388496842413091</v>
       </c>
       <c r="C32">
-        <v>-0.02674349708561352</v>
+        <v>0.01856653840842528</v>
       </c>
       <c r="D32">
-        <v>0.02312896069438167</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01244496745198017</v>
+      </c>
+      <c r="E32">
+        <v>0.06562627026589506</v>
+      </c>
+      <c r="F32">
+        <v>-0.0208515171534479</v>
+      </c>
+      <c r="G32">
+        <v>0.02084235349525362</v>
+      </c>
+      <c r="H32">
+        <v>-0.07247713922150953</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08297407118474684</v>
+        <v>0.09611946608178226</v>
       </c>
       <c r="C33">
-        <v>-0.04396368950852714</v>
+        <v>0.02703827344439811</v>
       </c>
       <c r="D33">
-        <v>0.06360504729285771</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04764268272206146</v>
+      </c>
+      <c r="E33">
+        <v>0.01495367222929891</v>
+      </c>
+      <c r="F33">
+        <v>0.00520988753782492</v>
+      </c>
+      <c r="G33">
+        <v>-0.006859651902979161</v>
+      </c>
+      <c r="H33">
+        <v>-0.05406583712794962</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05606001288494718</v>
+        <v>0.06247578174847145</v>
       </c>
       <c r="C34">
-        <v>-0.02853749373952507</v>
+        <v>0.01417174291936546</v>
       </c>
       <c r="D34">
-        <v>0.05621792810121724</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05388939198872908</v>
+      </c>
+      <c r="E34">
+        <v>0.009146128830425999</v>
+      </c>
+      <c r="F34">
+        <v>0.01690524987182944</v>
+      </c>
+      <c r="G34">
+        <v>-0.002674900953813601</v>
+      </c>
+      <c r="H34">
+        <v>-0.05585662021720502</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03603385208683399</v>
+        <v>0.03929731342735523</v>
       </c>
       <c r="C35">
-        <v>-0.008285139341859416</v>
+        <v>0.003449793180727175</v>
       </c>
       <c r="D35">
-        <v>0.008359543462509422</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.008444152716901356</v>
+      </c>
+      <c r="E35">
+        <v>0.01733092465343456</v>
+      </c>
+      <c r="F35">
+        <v>-0.01647068597646436</v>
+      </c>
+      <c r="G35">
+        <v>-0.01235913072187871</v>
+      </c>
+      <c r="H35">
+        <v>-0.015752748072721</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02128822620268717</v>
+        <v>0.02855863357240353</v>
       </c>
       <c r="C36">
-        <v>-0.01702642223903819</v>
+        <v>0.01397209093207643</v>
       </c>
       <c r="D36">
-        <v>0.02197612284182555</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01481664547392536</v>
+      </c>
+      <c r="E36">
+        <v>0.04322540310513104</v>
+      </c>
+      <c r="F36">
+        <v>0.01269982389977919</v>
+      </c>
+      <c r="G36">
+        <v>-0.01035783711781807</v>
+      </c>
+      <c r="H36">
+        <v>-0.04296945898291408</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0404079779376194</v>
+        <v>0.04489101288746191</v>
       </c>
       <c r="C38">
-        <v>-0.004764005623753689</v>
+        <v>-0.0005065977456486397</v>
       </c>
       <c r="D38">
-        <v>0.01725710111814932</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01694809629662549</v>
+      </c>
+      <c r="E38">
+        <v>0.05378165950675282</v>
+      </c>
+      <c r="F38">
+        <v>-0.01411222592318479</v>
+      </c>
+      <c r="G38">
+        <v>0.006074580048886386</v>
+      </c>
+      <c r="H38">
+        <v>-0.03113609279829445</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.08986907668510231</v>
+        <v>0.1020181877357485</v>
       </c>
       <c r="C39">
-        <v>-0.07324666553933286</v>
+        <v>0.05164531530680203</v>
       </c>
       <c r="D39">
-        <v>0.05806755875622358</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.06006251937787413</v>
+      </c>
+      <c r="E39">
+        <v>0.0002094344570198607</v>
+      </c>
+      <c r="F39">
+        <v>0.003078494102768566</v>
+      </c>
+      <c r="G39">
+        <v>0.02998704506560417</v>
+      </c>
+      <c r="H39">
+        <v>-0.04672014298146806</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0736573261119966</v>
+        <v>0.07098437925447722</v>
       </c>
       <c r="C40">
-        <v>-0.04118062121250292</v>
+        <v>0.02032276319296831</v>
       </c>
       <c r="D40">
-        <v>-0.004111064495668587</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01102068257446587</v>
+      </c>
+      <c r="E40">
+        <v>0.01734480187595613</v>
+      </c>
+      <c r="F40">
+        <v>-0.05679573964587044</v>
+      </c>
+      <c r="G40">
+        <v>0.05441415950204549</v>
+      </c>
+      <c r="H40">
+        <v>0.1034285743909427</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04091929036384453</v>
+        <v>0.04377945313137355</v>
       </c>
       <c r="C41">
-        <v>-0.006065180116512554</v>
+        <v>-0.001635442892349946</v>
       </c>
       <c r="D41">
-        <v>0.03723255758265059</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03418378839600458</v>
+      </c>
+      <c r="E41">
+        <v>0.003687624643071676</v>
+      </c>
+      <c r="F41">
+        <v>-0.01436245709086517</v>
+      </c>
+      <c r="G41">
+        <v>0.009229470545752926</v>
+      </c>
+      <c r="H41">
+        <v>-0.03393123541398579</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04701198810180068</v>
+        <v>0.0579896006908499</v>
       </c>
       <c r="C43">
-        <v>-0.02635543965527297</v>
+        <v>0.01851768991430321</v>
       </c>
       <c r="D43">
-        <v>0.01992727813834856</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02593144844183864</v>
+      </c>
+      <c r="E43">
+        <v>0.02077080193349229</v>
+      </c>
+      <c r="F43">
+        <v>0.01213653189591564</v>
+      </c>
+      <c r="G43">
+        <v>-0.0186350075823806</v>
+      </c>
+      <c r="H43">
+        <v>-0.05330290731045847</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.0914610080293214</v>
+        <v>0.09534637774076957</v>
       </c>
       <c r="C44">
-        <v>-0.0928938470676627</v>
+        <v>0.06616695651226179</v>
       </c>
       <c r="D44">
-        <v>0.08138512485446925</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05831472499286874</v>
+      </c>
+      <c r="E44">
+        <v>0.08906337085124225</v>
+      </c>
+      <c r="F44">
+        <v>0.03788883610168066</v>
+      </c>
+      <c r="G44">
+        <v>0.02509873946347441</v>
+      </c>
+      <c r="H44">
+        <v>-0.01922268207159233</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02390095440183944</v>
+        <v>0.03323162736431631</v>
       </c>
       <c r="C46">
-        <v>-0.01357064808397331</v>
+        <v>0.01152736858025215</v>
       </c>
       <c r="D46">
-        <v>0.0222702254256097</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03288444039442834</v>
+      </c>
+      <c r="E46">
+        <v>0.0285508717612972</v>
+      </c>
+      <c r="F46">
+        <v>0.01279859654789779</v>
+      </c>
+      <c r="G46">
+        <v>-0.004449044486967853</v>
+      </c>
+      <c r="H46">
+        <v>-0.03779555663801033</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0289504084245132</v>
+        <v>0.03759084437979526</v>
       </c>
       <c r="C47">
-        <v>-0.02420273551846341</v>
+        <v>0.0203989067225652</v>
       </c>
       <c r="D47">
-        <v>0.01226569905465434</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01012867021920651</v>
+      </c>
+      <c r="E47">
+        <v>0.05141346372725769</v>
+      </c>
+      <c r="F47">
+        <v>0.007298234373265534</v>
+      </c>
+      <c r="G47">
+        <v>-0.04174506533111252</v>
+      </c>
+      <c r="H47">
+        <v>-0.02293707095297636</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03249003662982392</v>
+        <v>0.03770483720190322</v>
       </c>
       <c r="C48">
-        <v>-0.01860296488729216</v>
+        <v>0.01141495087259869</v>
       </c>
       <c r="D48">
-        <v>0.0301470176656369</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01933460347367494</v>
+      </c>
+      <c r="E48">
+        <v>0.04492480350192323</v>
+      </c>
+      <c r="F48">
+        <v>-0.0009698242836421416</v>
+      </c>
+      <c r="G48">
+        <v>0.01023471718567052</v>
+      </c>
+      <c r="H48">
+        <v>-0.03897132039791478</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1597813659888516</v>
+        <v>0.1879667897162771</v>
       </c>
       <c r="C49">
-        <v>-0.06307997197730618</v>
+        <v>0.03766597864826906</v>
       </c>
       <c r="D49">
-        <v>-0.01436543306517183</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.02907505949877386</v>
+      </c>
+      <c r="E49">
+        <v>-0.1437942592844222</v>
+      </c>
+      <c r="F49">
+        <v>0.08084025866456739</v>
+      </c>
+      <c r="G49">
+        <v>-0.04786476769710212</v>
+      </c>
+      <c r="H49">
+        <v>0.2277521351820177</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03872377460903901</v>
+        <v>0.04604268606986577</v>
       </c>
       <c r="C50">
-        <v>-0.02607262746782881</v>
+        <v>0.01887812134840484</v>
       </c>
       <c r="D50">
-        <v>0.03697006702694677</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03027419702173004</v>
+      </c>
+      <c r="E50">
+        <v>0.05044885494374632</v>
+      </c>
+      <c r="F50">
+        <v>0.009769412862519819</v>
+      </c>
+      <c r="G50">
+        <v>-0.02417908172086627</v>
+      </c>
+      <c r="H50">
+        <v>-0.06055505603316567</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02616006371751559</v>
+        <v>0.02970221436928994</v>
       </c>
       <c r="C51">
-        <v>-0.009888893668235928</v>
+        <v>0.00437481196800898</v>
       </c>
       <c r="D51">
-        <v>0.0164303378260119</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01413950472727417</v>
+      </c>
+      <c r="E51">
+        <v>0.01395851494049895</v>
+      </c>
+      <c r="F51">
+        <v>0.01879517033680348</v>
+      </c>
+      <c r="G51">
+        <v>-0.001831298078726945</v>
+      </c>
+      <c r="H51">
+        <v>0.003058826299243872</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1512658010786288</v>
+        <v>0.1622390101837271</v>
       </c>
       <c r="C53">
-        <v>-0.07969824854417534</v>
+        <v>0.0529168308436304</v>
       </c>
       <c r="D53">
-        <v>0.02587195505740385</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01927836624358735</v>
+      </c>
+      <c r="E53">
+        <v>-0.02501493029923573</v>
+      </c>
+      <c r="F53">
+        <v>0.02053075755499466</v>
+      </c>
+      <c r="G53">
+        <v>-0.02584185706236568</v>
+      </c>
+      <c r="H53">
+        <v>-0.1798309487627036</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05472924243353053</v>
+        <v>0.0580100678317095</v>
       </c>
       <c r="C54">
-        <v>-0.02645546956612469</v>
+        <v>0.01514748184794513</v>
       </c>
       <c r="D54">
-        <v>0.0233738657629105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01753735074313465</v>
+      </c>
+      <c r="E54">
+        <v>0.04978377129913843</v>
+      </c>
+      <c r="F54">
+        <v>0.004013616691017078</v>
+      </c>
+      <c r="G54">
+        <v>0.01031723768483515</v>
+      </c>
+      <c r="H54">
+        <v>-0.04471343056955233</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09927923056803009</v>
+        <v>0.10358725281576</v>
       </c>
       <c r="C55">
-        <v>-0.0548780397800241</v>
+        <v>0.03491445458325482</v>
       </c>
       <c r="D55">
-        <v>0.02803694870238918</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02324444243710565</v>
+      </c>
+      <c r="E55">
+        <v>0.01778396752135167</v>
+      </c>
+      <c r="F55">
+        <v>0.01416525924381555</v>
+      </c>
+      <c r="G55">
+        <v>-0.02038575809448406</v>
+      </c>
+      <c r="H55">
+        <v>-0.1526669271455378</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.148069930603249</v>
+        <v>0.1615871664611908</v>
       </c>
       <c r="C56">
-        <v>-0.09180167015835068</v>
+        <v>0.06457639583812831</v>
       </c>
       <c r="D56">
-        <v>0.02615093978817043</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.02016437820090229</v>
+      </c>
+      <c r="E56">
+        <v>-0.02419259114787452</v>
+      </c>
+      <c r="F56">
+        <v>0.03765952493212085</v>
+      </c>
+      <c r="G56">
+        <v>-0.03878278594288845</v>
+      </c>
+      <c r="H56">
+        <v>-0.1778126626538679</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1273757999237517</v>
+        <v>0.09884393775214725</v>
       </c>
       <c r="C58">
-        <v>-0.007339219677772108</v>
+        <v>-0.0364171153652826</v>
       </c>
       <c r="D58">
-        <v>0.03112671485311796</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.04216471552134637</v>
+      </c>
+      <c r="E58">
+        <v>0.1666312954712695</v>
+      </c>
+      <c r="F58">
+        <v>-0.02103245040686579</v>
+      </c>
+      <c r="G58">
+        <v>-0.03212106198131152</v>
+      </c>
+      <c r="H58">
+        <v>0.2559541304830683</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.120505997806779</v>
+        <v>0.1367040014222779</v>
       </c>
       <c r="C59">
-        <v>-0.08253431504785627</v>
+        <v>0.08886817955632988</v>
       </c>
       <c r="D59">
-        <v>-0.3537244676593611</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3632415026943258</v>
+      </c>
+      <c r="E59">
+        <v>0.02729617755629309</v>
+      </c>
+      <c r="F59">
+        <v>0.01810373190377482</v>
+      </c>
+      <c r="G59">
+        <v>-0.02523851108509821</v>
+      </c>
+      <c r="H59">
+        <v>0.003199625366055543</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2005251799173974</v>
+        <v>0.2322196379856115</v>
       </c>
       <c r="C60">
-        <v>-0.1048913459786063</v>
+        <v>0.07014830248208852</v>
       </c>
       <c r="D60">
-        <v>0.01362419390832051</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04173075046289493</v>
+      </c>
+      <c r="E60">
+        <v>-0.08946474876327508</v>
+      </c>
+      <c r="F60">
+        <v>0.0694574778352868</v>
+      </c>
+      <c r="G60">
+        <v>0.03039592273779573</v>
+      </c>
+      <c r="H60">
+        <v>0.1483351053550742</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07975549333173185</v>
+        <v>0.08887571754961118</v>
       </c>
       <c r="C61">
-        <v>-0.05332170984447031</v>
+        <v>0.037905376467028</v>
       </c>
       <c r="D61">
-        <v>0.04260797245215567</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04057206949261661</v>
+      </c>
+      <c r="E61">
+        <v>-0.003040368280071524</v>
+      </c>
+      <c r="F61">
+        <v>0.003902103985273951</v>
+      </c>
+      <c r="G61">
+        <v>-0.004433188987227954</v>
+      </c>
+      <c r="H61">
+        <v>-0.06409273528822679</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1286070863057445</v>
+        <v>0.1391440675245318</v>
       </c>
       <c r="C62">
-        <v>-0.06621183545619129</v>
+        <v>0.04078755979805108</v>
       </c>
       <c r="D62">
-        <v>0.03233142504857072</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.03270531404590361</v>
+      </c>
+      <c r="E62">
+        <v>-0.06123794832584671</v>
+      </c>
+      <c r="F62">
+        <v>0.01784766163343013</v>
+      </c>
+      <c r="G62">
+        <v>0.00472063270731919</v>
+      </c>
+      <c r="H62">
+        <v>-0.1975716961679783</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05069889681481852</v>
+        <v>0.05071927926512679</v>
       </c>
       <c r="C63">
-        <v>-0.02481429172499973</v>
+        <v>0.01314681834562146</v>
       </c>
       <c r="D63">
-        <v>0.02218364158201342</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02024934109687761</v>
+      </c>
+      <c r="E63">
+        <v>0.05056354141928564</v>
+      </c>
+      <c r="F63">
+        <v>-0.01620262694029262</v>
+      </c>
+      <c r="G63">
+        <v>0.02005014901666906</v>
+      </c>
+      <c r="H63">
+        <v>-0.05600066711652002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1032416955763239</v>
+        <v>0.1085496290048485</v>
       </c>
       <c r="C64">
-        <v>-0.02388111256225732</v>
+        <v>0.004858421964612909</v>
       </c>
       <c r="D64">
-        <v>0.05827158060093266</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.0388151338977538</v>
+      </c>
+      <c r="E64">
+        <v>0.04777453071443342</v>
+      </c>
+      <c r="F64">
+        <v>0.0404095364212784</v>
+      </c>
+      <c r="G64">
+        <v>0.04416873585099675</v>
+      </c>
+      <c r="H64">
+        <v>-0.06386365309348049</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1221396598922156</v>
+        <v>0.1257767748896227</v>
       </c>
       <c r="C65">
-        <v>-0.06271271335264937</v>
+        <v>0.03985477169908935</v>
       </c>
       <c r="D65">
-        <v>-0.01678187318480142</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.004300949355194473</v>
+      </c>
+      <c r="E65">
+        <v>0.01522366379379384</v>
+      </c>
+      <c r="F65">
+        <v>0.04749648580454391</v>
+      </c>
+      <c r="G65">
+        <v>0.0619859131257665</v>
+      </c>
+      <c r="H65">
+        <v>0.1382066085111943</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1435814402352928</v>
+        <v>0.1548098885929896</v>
       </c>
       <c r="C66">
-        <v>-0.0800020219443484</v>
+        <v>0.04918730984969513</v>
       </c>
       <c r="D66">
-        <v>0.1093366371806213</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09378965684351595</v>
+      </c>
+      <c r="E66">
+        <v>-0.03106501453314211</v>
+      </c>
+      <c r="F66">
+        <v>0.01823968206378172</v>
+      </c>
+      <c r="G66">
+        <v>0.04093243072953441</v>
+      </c>
+      <c r="H66">
+        <v>-0.1194286984016987</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07261189753970017</v>
+        <v>0.08435973752065343</v>
       </c>
       <c r="C67">
-        <v>-0.01517445140888544</v>
+        <v>0.005765710943766086</v>
       </c>
       <c r="D67">
-        <v>0.02261205462051445</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.030304176341718</v>
+      </c>
+      <c r="E67">
+        <v>0.02421873698624696</v>
+      </c>
+      <c r="F67">
+        <v>0.01787638269913425</v>
+      </c>
+      <c r="G67">
+        <v>-0.01294115988285322</v>
+      </c>
+      <c r="H67">
+        <v>-0.03338729863954581</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05913173400354804</v>
+        <v>0.05709370906712617</v>
       </c>
       <c r="C68">
-        <v>-0.05206930403233352</v>
+        <v>0.05977517282807137</v>
       </c>
       <c r="D68">
-        <v>-0.2524063785003506</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2693045809908101</v>
+      </c>
+      <c r="E68">
+        <v>0.03617405861562802</v>
+      </c>
+      <c r="F68">
+        <v>0.01229944771922638</v>
+      </c>
+      <c r="G68">
+        <v>-0.01676614086207901</v>
+      </c>
+      <c r="H68">
+        <v>-0.002538313892915714</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05151588616783882</v>
+        <v>0.05324370459021684</v>
       </c>
       <c r="C69">
-        <v>-0.017564941179518</v>
+        <v>0.006180023012845465</v>
       </c>
       <c r="D69">
-        <v>0.01971053696316793</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01537904126670768</v>
+      </c>
+      <c r="E69">
+        <v>0.02444308119924181</v>
+      </c>
+      <c r="F69">
+        <v>-0.008800441757583209</v>
+      </c>
+      <c r="G69">
+        <v>-0.02076554586352937</v>
+      </c>
+      <c r="H69">
+        <v>-0.04668969154047708</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.004197996420442485</v>
+        <v>0.02722584421621816</v>
       </c>
       <c r="C70">
-        <v>0.005673000684182382</v>
+        <v>-0.0001594149069665358</v>
       </c>
       <c r="D70">
-        <v>-0.002333116591640828</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.004448553418279584</v>
+      </c>
+      <c r="E70">
+        <v>-0.02057361493558226</v>
+      </c>
+      <c r="F70">
+        <v>0.01916499551810877</v>
+      </c>
+      <c r="G70">
+        <v>-0.02423077204574253</v>
+      </c>
+      <c r="H70">
+        <v>0.0265739890197738</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05897446375370737</v>
+        <v>0.05997552013065056</v>
       </c>
       <c r="C71">
-        <v>-0.05255924743484518</v>
+        <v>0.06426112929292439</v>
       </c>
       <c r="D71">
-        <v>-0.2934310927885837</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.295564116336013</v>
+      </c>
+      <c r="E71">
+        <v>0.03332237773421527</v>
+      </c>
+      <c r="F71">
+        <v>0.03992996983299353</v>
+      </c>
+      <c r="G71">
+        <v>-0.006280519422867606</v>
+      </c>
+      <c r="H71">
+        <v>-0.008614406637711635</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1413347622459682</v>
+        <v>0.1461712517569517</v>
       </c>
       <c r="C72">
-        <v>-0.06723931341569624</v>
+        <v>0.03652697089295461</v>
       </c>
       <c r="D72">
-        <v>-0.007117717441912104</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0085258312109573</v>
+      </c>
+      <c r="E72">
+        <v>-0.1137555684275612</v>
+      </c>
+      <c r="F72">
+        <v>-0.1537699267543106</v>
+      </c>
+      <c r="G72">
+        <v>0.1215351625865205</v>
+      </c>
+      <c r="H72">
+        <v>-0.02188981033664148</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2727791399841324</v>
+        <v>0.2868749476459015</v>
       </c>
       <c r="C73">
-        <v>-0.1137068052132672</v>
+        <v>0.04742281093317745</v>
       </c>
       <c r="D73">
-        <v>0.04889116082297833</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09969015457106728</v>
+      </c>
+      <c r="E73">
+        <v>-0.2110743577869989</v>
+      </c>
+      <c r="F73">
+        <v>0.1266251445389778</v>
+      </c>
+      <c r="G73">
+        <v>-0.1357841481904706</v>
+      </c>
+      <c r="H73">
+        <v>0.4902938295929489</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07785487861842515</v>
+        <v>0.09115507369968279</v>
       </c>
       <c r="C74">
-        <v>-0.07593597406578968</v>
+        <v>0.05938916835264983</v>
       </c>
       <c r="D74">
-        <v>0.0162151427592254</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.0299366234669836</v>
+      </c>
+      <c r="E74">
+        <v>-0.005006023002276065</v>
+      </c>
+      <c r="F74">
+        <v>0.0008292109381480339</v>
+      </c>
+      <c r="G74">
+        <v>-0.0597920372905916</v>
+      </c>
+      <c r="H74">
+        <v>-0.1147798649875969</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09513666904843131</v>
+        <v>0.1005002224354398</v>
       </c>
       <c r="C75">
-        <v>-0.05499116157877347</v>
+        <v>0.02984182007918665</v>
       </c>
       <c r="D75">
-        <v>0.01014217339208605</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.01492894844761765</v>
+      </c>
+      <c r="E75">
+        <v>0.008578189190012559</v>
+      </c>
+      <c r="F75">
+        <v>0.02566659443760125</v>
+      </c>
+      <c r="G75">
+        <v>-0.02770358032359375</v>
+      </c>
+      <c r="H75">
+        <v>-0.1147779508514043</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1289237124438129</v>
+        <v>0.1398099531871665</v>
       </c>
       <c r="C76">
-        <v>-0.08356355516152821</v>
+        <v>0.0576766379229775</v>
       </c>
       <c r="D76">
-        <v>0.05683693506912592</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05084879306758802</v>
+      </c>
+      <c r="E76">
+        <v>0.02869412697374082</v>
+      </c>
+      <c r="F76">
+        <v>0.04554035479034819</v>
+      </c>
+      <c r="G76">
+        <v>-0.02301211232079468</v>
+      </c>
+      <c r="H76">
+        <v>-0.2009249727103671</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1134065387257065</v>
+        <v>0.1086142119870306</v>
       </c>
       <c r="C77">
-        <v>-0.02189263057134849</v>
+        <v>-0.007019542871144801</v>
       </c>
       <c r="D77">
-        <v>0.05076635614890825</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01927186806792341</v>
+      </c>
+      <c r="E77">
+        <v>0.04599397572265886</v>
+      </c>
+      <c r="F77">
+        <v>0.1029344126576708</v>
+      </c>
+      <c r="G77">
+        <v>0.8952546003462845</v>
+      </c>
+      <c r="H77">
+        <v>0.06929923411488087</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1013464134156461</v>
+        <v>0.1412027781077834</v>
       </c>
       <c r="C78">
-        <v>-0.04268303879632492</v>
+        <v>0.0357804234578319</v>
       </c>
       <c r="D78">
-        <v>0.08075201180756826</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.0829046493014088</v>
+      </c>
+      <c r="E78">
+        <v>0.05921556221328639</v>
+      </c>
+      <c r="F78">
+        <v>0.03655007813637742</v>
+      </c>
+      <c r="G78">
+        <v>0.08723748771427835</v>
+      </c>
+      <c r="H78">
+        <v>0.04714245288914716</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1462754953321321</v>
+        <v>0.1518034349171934</v>
       </c>
       <c r="C79">
-        <v>-0.07679743290330227</v>
+        <v>0.04475078878100217</v>
       </c>
       <c r="D79">
-        <v>0.03183268581302583</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02722299540456635</v>
+      </c>
+      <c r="E79">
+        <v>-0.01605405200372115</v>
+      </c>
+      <c r="F79">
+        <v>0.02153194817515056</v>
+      </c>
+      <c r="G79">
+        <v>-0.04214822601326717</v>
+      </c>
+      <c r="H79">
+        <v>-0.1749041891762356</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04493157376311161</v>
+        <v>0.04306347201590591</v>
       </c>
       <c r="C80">
-        <v>-0.01478791209593491</v>
+        <v>0.005659582878885678</v>
       </c>
       <c r="D80">
-        <v>0.02761854756537428</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01749659513739572</v>
+      </c>
+      <c r="E80">
+        <v>-0.01282759460133697</v>
+      </c>
+      <c r="F80">
+        <v>-0.0002303232408264744</v>
+      </c>
+      <c r="G80">
+        <v>-0.03066725751800627</v>
+      </c>
+      <c r="H80">
+        <v>-0.03221952938740615</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1150628909002812</v>
+        <v>0.1204172367817873</v>
       </c>
       <c r="C81">
-        <v>-0.0644201402163475</v>
+        <v>0.03801551661523005</v>
       </c>
       <c r="D81">
-        <v>0.03253847558705193</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.02303689880976007</v>
+      </c>
+      <c r="E81">
+        <v>0.02193744831782311</v>
+      </c>
+      <c r="F81">
+        <v>0.01706455816685291</v>
+      </c>
+      <c r="G81">
+        <v>-0.06364099952025232</v>
+      </c>
+      <c r="H81">
+        <v>-0.1449415688315923</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1293216857410675</v>
+        <v>0.1310958574524632</v>
       </c>
       <c r="C82">
-        <v>-0.0794889920693343</v>
+        <v>0.05185742206016605</v>
       </c>
       <c r="D82">
-        <v>0.02256795651117461</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.02808090338597437</v>
+      </c>
+      <c r="E82">
+        <v>-0.009118072834595965</v>
+      </c>
+      <c r="F82">
+        <v>0.05767368909357126</v>
+      </c>
+      <c r="G82">
+        <v>-0.05900170847963099</v>
+      </c>
+      <c r="H82">
+        <v>-0.2160445840911836</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07443114884654066</v>
+        <v>0.08626058270236815</v>
       </c>
       <c r="C83">
-        <v>0.0114870835088452</v>
+        <v>-0.02478929435749737</v>
       </c>
       <c r="D83">
-        <v>0.02368150511313081</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03056869832155774</v>
+      </c>
+      <c r="E83">
+        <v>0.02274392942505557</v>
+      </c>
+      <c r="F83">
+        <v>0.054999434237006</v>
+      </c>
+      <c r="G83">
+        <v>-0.07273093377785531</v>
+      </c>
+      <c r="H83">
+        <v>0.06634741683086447</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02814867696566426</v>
+        <v>0.03739815785999462</v>
       </c>
       <c r="C84">
-        <v>-0.02829922135063112</v>
+        <v>0.02270910648039881</v>
       </c>
       <c r="D84">
-        <v>0.0319189026750339</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03229711907750093</v>
+      </c>
+      <c r="E84">
+        <v>0.02871954540114139</v>
+      </c>
+      <c r="F84">
+        <v>-0.05533921137459769</v>
+      </c>
+      <c r="G84">
+        <v>-0.06812348251523359</v>
+      </c>
+      <c r="H84">
+        <v>0.002346521697875747</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1188327082245152</v>
+        <v>0.1214202095072042</v>
       </c>
       <c r="C85">
-        <v>-0.05684965101330058</v>
+        <v>0.0300369220812883</v>
       </c>
       <c r="D85">
-        <v>0.02261070883975857</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.02099258616321487</v>
+      </c>
+      <c r="E85">
+        <v>0.02058123441381467</v>
+      </c>
+      <c r="F85">
+        <v>0.04012205374400975</v>
+      </c>
+      <c r="G85">
+        <v>-0.03586132014031804</v>
+      </c>
+      <c r="H85">
+        <v>-0.1529388712509329</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.04960450344877053</v>
+        <v>0.05786741044044039</v>
       </c>
       <c r="C86">
-        <v>-0.03035588179771414</v>
+        <v>0.01950872094790855</v>
       </c>
       <c r="D86">
-        <v>0.02457155905207006</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.02604891554750463</v>
+      </c>
+      <c r="E86">
+        <v>0.07017876341903</v>
+      </c>
+      <c r="F86">
+        <v>0.02600802342575208</v>
+      </c>
+      <c r="G86">
+        <v>-0.02268233155052865</v>
+      </c>
+      <c r="H86">
+        <v>0.01111749493667943</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1181257357593325</v>
+        <v>0.1221988939900943</v>
       </c>
       <c r="C87">
-        <v>-0.07246323933001761</v>
+        <v>0.03834036253081792</v>
       </c>
       <c r="D87">
-        <v>0.07149969531844334</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.06998798789405977</v>
+      </c>
+      <c r="E87">
+        <v>0.02675035047045542</v>
+      </c>
+      <c r="F87">
+        <v>0.0002930871337017804</v>
+      </c>
+      <c r="G87">
+        <v>0.1312955051258881</v>
+      </c>
+      <c r="H87">
+        <v>0.03967679917466373</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05219147836866233</v>
+        <v>0.06003057158079041</v>
       </c>
       <c r="C88">
-        <v>-0.02872644938189173</v>
+        <v>0.01866486654103883</v>
       </c>
       <c r="D88">
-        <v>0.02181327890444901</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03384481724028793</v>
+      </c>
+      <c r="E88">
+        <v>0.02250709096650566</v>
+      </c>
+      <c r="F88">
+        <v>0.004946143373470475</v>
+      </c>
+      <c r="G88">
+        <v>0.004848570781779215</v>
+      </c>
+      <c r="H88">
+        <v>-0.05449771750713506</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08473121333297026</v>
+        <v>0.09412568239339428</v>
       </c>
       <c r="C89">
-        <v>-0.07173629556487823</v>
+        <v>0.0841384028833861</v>
       </c>
       <c r="D89">
-        <v>-0.3236774261709083</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3476173858354767</v>
+      </c>
+      <c r="E89">
+        <v>0.07170051757010233</v>
+      </c>
+      <c r="F89">
+        <v>0.07961660638702089</v>
+      </c>
+      <c r="G89">
+        <v>-0.02749867139050355</v>
+      </c>
+      <c r="H89">
+        <v>-0.009245066241274622</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07505036695079663</v>
+        <v>0.07888757745971656</v>
       </c>
       <c r="C90">
-        <v>-0.0629558951128367</v>
+        <v>0.07055973058888483</v>
       </c>
       <c r="D90">
-        <v>-0.3200764697309769</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.306325419081545</v>
+      </c>
+      <c r="E90">
+        <v>0.06044015679335676</v>
+      </c>
+      <c r="F90">
+        <v>-0.002958079012225488</v>
+      </c>
+      <c r="G90">
+        <v>-0.005691892253522316</v>
+      </c>
+      <c r="H90">
+        <v>-0.001985399882193757</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08591565556810823</v>
+        <v>0.08973579986550927</v>
       </c>
       <c r="C91">
-        <v>-0.05705805447252148</v>
+        <v>0.03482810484868952</v>
       </c>
       <c r="D91">
-        <v>0.03575171938655168</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03242242364316057</v>
+      </c>
+      <c r="E91">
+        <v>0.014163650358377</v>
+      </c>
+      <c r="F91">
+        <v>0.005345313105493701</v>
+      </c>
+      <c r="G91">
+        <v>-0.05499431033675819</v>
+      </c>
+      <c r="H91">
+        <v>-0.07774780183496285</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07518996061631529</v>
+        <v>0.07852609722940454</v>
       </c>
       <c r="C92">
-        <v>-0.07423217458294855</v>
+        <v>0.08480009071529249</v>
       </c>
       <c r="D92">
-        <v>-0.3388469395478472</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3443164534550039</v>
+      </c>
+      <c r="E92">
+        <v>0.04598519085414806</v>
+      </c>
+      <c r="F92">
+        <v>0.03878618718968666</v>
+      </c>
+      <c r="G92">
+        <v>0.01198670127292657</v>
+      </c>
+      <c r="H92">
+        <v>-0.01550948496532066</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.0654571353187632</v>
+        <v>0.07524518791592108</v>
       </c>
       <c r="C93">
-        <v>-0.06675186813250823</v>
+        <v>0.0807662153400644</v>
       </c>
       <c r="D93">
-        <v>-0.3132390746677732</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.304315238402025</v>
+      </c>
+      <c r="E93">
+        <v>0.03966495289524482</v>
+      </c>
+      <c r="F93">
+        <v>0.03725032886922771</v>
+      </c>
+      <c r="G93">
+        <v>0.01604600353975566</v>
+      </c>
+      <c r="H93">
+        <v>0.01328451346626976</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1317390604476199</v>
+        <v>0.1262643272924119</v>
       </c>
       <c r="C94">
-        <v>-0.05642721369302692</v>
+        <v>0.02145144327467438</v>
       </c>
       <c r="D94">
-        <v>0.04796919615643604</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04875763672317604</v>
+      </c>
+      <c r="E94">
+        <v>-0.004757317318310505</v>
+      </c>
+      <c r="F94">
+        <v>0.0227669861807005</v>
+      </c>
+      <c r="G94">
+        <v>-0.06179527313651612</v>
+      </c>
+      <c r="H94">
+        <v>-0.09583746080253244</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1178292630744601</v>
+        <v>0.125924859990029</v>
       </c>
       <c r="C95">
-        <v>-0.03036210548733023</v>
+        <v>0.003292158489955655</v>
       </c>
       <c r="D95">
-        <v>0.06172581321493067</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.07078795038798545</v>
+      </c>
+      <c r="E95">
+        <v>0.01673089512677942</v>
+      </c>
+      <c r="F95">
+        <v>0.03675066562369445</v>
+      </c>
+      <c r="G95">
+        <v>0.02484873244385693</v>
+      </c>
+      <c r="H95">
+        <v>0.05762718541442387</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2199700854640767</v>
+        <v>0.2092692310676168</v>
       </c>
       <c r="C97">
-        <v>-0.05453234519872022</v>
+        <v>0.002784346474867646</v>
       </c>
       <c r="D97">
-        <v>-0.110287056404186</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.08784633120583726</v>
+      </c>
+      <c r="E97">
+        <v>-0.3373077912775182</v>
+      </c>
+      <c r="F97">
+        <v>-0.8604606064149827</v>
+      </c>
+      <c r="G97">
+        <v>0.06964697352595929</v>
+      </c>
+      <c r="H97">
+        <v>-0.01709065188833932</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2417240890567381</v>
+        <v>0.2746373288385556</v>
       </c>
       <c r="C98">
-        <v>-0.07336598926010293</v>
+        <v>0.03389978197062514</v>
       </c>
       <c r="D98">
-        <v>0.04960103446427029</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.05839041277038604</v>
+      </c>
+      <c r="E98">
+        <v>-0.1756744153581449</v>
+      </c>
+      <c r="F98">
+        <v>0.09677401385238768</v>
+      </c>
+      <c r="G98">
+        <v>-0.218624322652797</v>
+      </c>
+      <c r="H98">
+        <v>0.2498516625065073</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4557261171907457</v>
+        <v>0.2889050754825636</v>
       </c>
       <c r="C99">
-        <v>0.8738534084544337</v>
+        <v>-0.9320895054961007</v>
       </c>
       <c r="D99">
-        <v>-0.0549239733854668</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.1381836574047576</v>
+      </c>
+      <c r="E99">
+        <v>0.06833290323705858</v>
+      </c>
+      <c r="F99">
+        <v>0.04599540825645846</v>
+      </c>
+      <c r="G99">
+        <v>-0.02339053121803533</v>
+      </c>
+      <c r="H99">
+        <v>-0.06465816601830747</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.03961339563728326</v>
+        <v>0.04828511330853499</v>
       </c>
       <c r="C101">
-        <v>-0.03066317516289217</v>
+        <v>0.02612251491389443</v>
       </c>
       <c r="D101">
-        <v>0.005577565835238437</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.007306942970015701</v>
+      </c>
+      <c r="E101">
+        <v>0.05326930354393599</v>
+      </c>
+      <c r="F101">
+        <v>0.001604505501444013</v>
+      </c>
+      <c r="G101">
+        <v>-0.01052857996715065</v>
+      </c>
+      <c r="H101">
+        <v>-0.07623900408358336</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
